--- a/Data/Processed/Angiosperms/missing_powo_ipni/Arecaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Arecaceae.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ill. Hort. 42: 185. 1895 </t>
+          <t>Ill. Hort. 42: 185. 1895</t>
         </is>
       </c>
       <c r="J253" t="b">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gard. Chron. ser. 3, 77: 92, figs. 35-38. 1925 </t>
+          <t>Gard. Chron. ser. 3, 77: 92, figs. 35-38. 1925</t>
         </is>
       </c>
       <c r="J254" t="b">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Jard. Bot. Rio de Janeiro 3: 72. 1902 </t>
+          <t>Contr. Jard. Bot. Rio de Janeiro 3: 72. 1902</t>
         </is>
       </c>
       <c r="J255" t="b">
@@ -14715,7 +14715,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Jard. Bot. Rio de Janeiro 3: 72. 1902 </t>
+          <t>Contr. Jard. Bot. Rio de Janeiro 3: 72. 1902</t>
         </is>
       </c>
       <c r="J256" t="b">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -14803,7 +14803,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Jard. Bot. Rio de Janeiro 3: 72. 1902 </t>
+          <t>Contr. Jard. Bot. Rio de Janeiro 3: 72. 1902</t>
         </is>
       </c>
       <c r="J257" t="b">
@@ -14871,7 +14871,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sert. Palm. Brasil. 2: 70, pl. 74. 1903 </t>
+          <t>Sert. Palm. Brasil. 2: 70, pl. 74. 1903</t>
         </is>
       </c>
       <c r="J258" t="b">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Jard. Bot. Rio de Janeiro 3: 76. 1902 </t>
+          <t>Contr. Jard. Bot. Rio de Janeiro 3: 76. 1902</t>
         </is>
       </c>
       <c r="J259" t="b">
@@ -15027,7 +15027,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -15037,7 +15037,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 39: 27. 1987 </t>
+          <t>Brittonia 39: 27. 1987</t>
         </is>
       </c>
       <c r="J260" t="b">
@@ -15105,7 +15105,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -15115,7 +15115,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 10: 520. 1929 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 10: 520. 1929</t>
         </is>
       </c>
       <c r="J261" t="b">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 22: 462. 1942 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 22: 462. 1942</t>
         </is>
       </c>
       <c r="J262" t="b">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxon. Treatment Palm Subtribe Attaleinae (Tribe Cocoeae) (Illinois Biol. Monogr., 59) 63 (1999). </t>
+          <t>Taxon. Treatment Palm Subtribe Attaleinae (Tribe Cocoeae) (Illinois Biol. Monogr., 59) 63 (1999).</t>
         </is>
       </c>
       <c r="J263" t="b">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -15349,7 +15349,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxon. Treatment Palm Subtribe Attaleinae (Tribe Cocoeae) (Illinois Biol. Monogr., 59) 191 (1999). </t>
+          <t>Taxon. Treatment Palm Subtribe Attaleinae (Tribe Cocoeae) (Illinois Biol. Monogr., 59) 191 (1999).</t>
         </is>
       </c>
       <c r="J264" t="b">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prog. Resum. Soc. Bot. Brasil, XXXVI Congr. Nac. Bot., Curitiba 217 (1985), without latin descr. or type. </t>
+          <t>Prog. Resum. Soc. Bot. Brasil, XXXVI Congr. Nac. Bot., Curitiba 217 (1985), without latin descr. or type.</t>
         </is>
       </c>
       <c r="J265" t="b">
@@ -15495,7 +15495,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hist. Nat. Palm. 3: 211. 1838 [23 Sep 1838] </t>
+          <t>Hist. Nat. Palm. 3: 211. 1838 [23 Sep 1838]</t>
         </is>
       </c>
       <c r="J267" t="b">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hist. Nat. Palm. 3: 211. 1838 [23 Sep 1838] </t>
+          <t>Hist. Nat. Palm. 3: 211. 1838 [23 Sep 1838]</t>
         </is>
       </c>
       <c r="J268" t="b">
@@ -15729,7 +15729,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -15739,7 +15739,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hist. Nat. Palm. 3: 213. 1838 [23 Sep 1838] </t>
+          <t>Hist. Nat. Palm. 3: 213. 1838 [23 Sep 1838]</t>
         </is>
       </c>
       <c r="J269" t="b">
@@ -15807,7 +15807,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hist. Nat. Palm. 3: 206. 1838 [23 Sep 1838] </t>
+          <t>Hist. Nat. Palm. 3: 206. 1838 [23 Sep 1838]</t>
         </is>
       </c>
       <c r="J270" t="b">
@@ -15885,7 +15885,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hist. Nat. Palm. 3: 209. 1838 [23 Sep 1838] </t>
+          <t>Hist. Nat. Palm. 3: 209. 1838 [23 Sep 1838]</t>
         </is>
       </c>
       <c r="J271" t="b">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hist. Nat. Palm. 3: 209. 1838 [23 Sep 1838] </t>
+          <t>Hist. Nat. Palm. 3: 209. 1838 [23 Sep 1838]</t>
         </is>
       </c>
       <c r="J272" t="b">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beitr. Vergl. Anat. Sabaleenbl. 46. 1892 </t>
+          <t>Beitr. Vergl. Anat. Sabaleenbl. 46. 1892</t>
         </is>
       </c>
       <c r="J273" t="b">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -16207,7 +16207,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malpighia 1: 445. 1887 </t>
+          <t>Malpighia 1: 445. 1887</t>
         </is>
       </c>
       <c r="J275" t="b">
@@ -16275,7 +16275,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia 1: 38. 1888 </t>
+          <t>Vellosia 1: 38. 1888</t>
         </is>
       </c>
       <c r="J276" t="b">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brazil. Fl. Arec. 252 (-253; figs., map). 2010 </t>
+          <t>Brazil. Fl. Arec. 252 (-253; figs., map). 2010</t>
         </is>
       </c>
       <c r="J277" t="b">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 7(2): 506. 1991 </t>
+          <t>Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 7(2): 506. 1991</t>
         </is>
       </c>
       <c r="J278" t="b">
@@ -16509,7 +16509,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gentes Herbarum 6: 400, fig. 208, 209. 1944 </t>
+          <t>Gentes Herbarum 6: 400, fig. 208, 209. 1944</t>
         </is>
       </c>
       <c r="J279" t="b">
@@ -16587,7 +16587,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -16597,7 +16597,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Palm. Mattogross. Nov. 63 (t. 20). 1898 </t>
+          <t>Palm. Mattogross. Nov. 63 (t. 20). 1898</t>
         </is>
       </c>
       <c r="J280" t="b">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -16675,7 +16675,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. Jard. Bot. Rio de Janeiro 4: 108 (t. 25). 1907 </t>
+          <t>Contr. Jard. Bot. Rio de Janeiro 4: 108 (t. 25). 1907</t>
         </is>
       </c>
       <c r="J281" t="b">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Palms (1999+) 58(2): 88. 2014 [16 Jun 2014] </t>
+          <t>Palms (1999+) 58(2): 88. 2014 [16 Jun 2014]</t>
         </is>
       </c>
       <c r="J282" t="b">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Palms (1999+) 58(2): 90. 2014 [16 Jun 2014] </t>
+          <t>Palms (1999+) 58(2): 90. 2014 [16 Jun 2014]</t>
         </is>
       </c>
       <c r="J283" t="b">
@@ -16899,7 +16899,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -16909,7 +16909,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Princeps 1: 117. 2015 [Dec 2015] </t>
+          <t>Princeps 1: 117. 2015 [Dec 2015]</t>
         </is>
       </c>
       <c r="J284" t="b">
@@ -16977,7 +16977,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -16987,7 +16987,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fieldiana, Bot. 32: 244, figs. 9-14. 1970 </t>
+          <t>Fieldiana, Bot. 32: 244, figs. 9-14. 1970</t>
         </is>
       </c>
       <c r="J285" t="b">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Palms (1999+) 58(2): 93. 2014 [16 Jun 2014] </t>
+          <t>Palms (1999+) 58(2): 93. 2014 [16 Jun 2014]</t>
         </is>
       </c>
       <c r="J286" t="b">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fieldiana, Bot. 31: 240, fig. 4. 1967 </t>
+          <t>Fieldiana, Bot. 31: 240, fig. 4. 1967</t>
         </is>
       </c>
       <c r="J287" t="b">
@@ -17211,7 +17211,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Palms (1999+) 56(2): 57, figs. 1-4. 2012 [15 Jun 2012] </t>
+          <t>Palms (1999+) 56(2): 57, figs. 1-4. 2012 [15 Jun 2012]</t>
         </is>
       </c>
       <c r="J288" t="b">
@@ -17289,7 +17289,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Palms (1999+) 58(2): 95. 2014 [16 Jun 2014] </t>
+          <t>Palms (1999+) 58(2): 95. 2014 [16 Jun 2014]</t>
         </is>
       </c>
       <c r="J289" t="b">
@@ -17367,7 +17367,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -17377,7 +17377,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fieldiana, Bot. 32: 27, fig. 10-15. 1968 </t>
+          <t>Fieldiana, Bot. 32: 27, fig. 10-15. 1968</t>
         </is>
       </c>
       <c r="J290" t="b">
